--- a/0.1/Classes.xlsx
+++ b/0.1/Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ShareableDataStructures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A7F282-19A8-4C5E-A37E-E64A52E6BBA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901BC57-60D8-49E8-9F61-CDBCAA48C763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15990" yWindow="135" windowWidth="12810" windowHeight="17220" xr2:uid="{E6CF6B26-6F53-449B-A685-5B6C12C19AB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="173">
   <si>
     <t>Project</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Serialisable</t>
   </si>
   <si>
-    <t>AStream</t>
-  </si>
-  <si>
     <t>StreamBase</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>SIndex</t>
   </si>
   <si>
-    <t>SinPredicate</t>
-  </si>
-  <si>
     <t>SInteger</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>SView</t>
   </si>
   <si>
-    <t>SysColumn</t>
-  </si>
-  <si>
     <t>SysTable</t>
   </si>
   <si>
@@ -529,6 +520,36 @@
   </si>
   <si>
     <t>AliasRowBookmark</t>
+  </si>
+  <si>
+    <t>ILookup&lt;K,V&gt;</t>
+  </si>
+  <si>
+    <t>IOBase</t>
+  </si>
+  <si>
+    <t>ReaderBase</t>
+  </si>
+  <si>
+    <t>SArg</t>
+  </si>
+  <si>
+    <t>SDropIndex</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SInPredicate</t>
+  </si>
+  <si>
+    <t>SocketWriter</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>WriterBase</t>
   </si>
 </sst>
 </file>
@@ -900,11 +921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1199CB34-BACA-42ED-95C6-3BEADF0834FD}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,19 +962,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -998,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1015,10 +1036,10 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1072,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1089,10 +1110,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1109,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1126,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1183,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1200,10 +1221,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1277,7 +1298,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1405,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1425,7 +1446,7 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1522,7 +1543,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,14 +1734,11 @@
       <c r="C44" t="s">
         <v>18</v>
       </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
       <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,10 +1752,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1748,22 +1763,10 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>147</v>
-      </c>
-      <c r="I46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,13 +1777,10 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1794,19 +1794,13 @@
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" t="s">
-        <v>147</v>
-      </c>
-      <c r="K48" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="L48" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1817,19 +1811,16 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s">
-        <v>147</v>
-      </c>
-      <c r="K49" t="s">
-        <v>147</v>
+        <v>164</v>
+      </c>
+      <c r="L49" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1843,10 +1834,19 @@
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1857,25 +1857,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
-      </c>
-      <c r="G51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" t="s">
-        <v>147</v>
-      </c>
-      <c r="K51" t="s">
-        <v>147</v>
-      </c>
-      <c r="L51" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,16 +1877,10 @@
         <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -1912,19 +1894,19 @@
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="J53" t="s">
+        <v>144</v>
       </c>
       <c r="K53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1938,16 +1920,16 @@
         <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
-      </c>
-      <c r="J54" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="K54" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,22 +1943,10 @@
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H55" t="s">
-        <v>145</v>
-      </c>
-      <c r="I55" t="s">
-        <v>145</v>
-      </c>
-      <c r="K55" t="s">
-        <v>145</v>
-      </c>
-      <c r="L55" t="s">
-        <v>146</v>
+        <v>61</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -1987,22 +1957,25 @@
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K56" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="L56" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2013,13 +1986,19 @@
         <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>144</v>
+      </c>
+      <c r="J57" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2033,19 +2012,19 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H58" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="I58" t="s">
+        <v>144</v>
       </c>
       <c r="K58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2056,13 +2035,19 @@
         <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,19 +2061,13 @@
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" t="s">
-        <v>147</v>
-      </c>
-      <c r="J60" t="s">
-        <v>147</v>
-      </c>
-      <c r="K60" t="s">
-        <v>147</v>
+        <v>50</v>
+      </c>
+      <c r="H60" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2102,19 +2081,22 @@
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" t="s">
         <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
-      </c>
-      <c r="J61" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="I61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2128,19 +2110,19 @@
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
         <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
-      </c>
-      <c r="I62" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="K62" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,13 +2133,13 @@
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2171,10 +2153,19 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F64" t="s">
         <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2185,16 +2176,13 @@
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" t="s">
-        <v>53</v>
-      </c>
-      <c r="L65" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2208,16 +2196,19 @@
         <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="K66" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,19 +2222,19 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
         <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
-      </c>
-      <c r="I67" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,13 +2245,22 @@
         <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F69" t="s">
         <v>50</v>
@@ -2291,16 +2291,10 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,13 +2305,16 @@
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>165</v>
+      </c>
+      <c r="L71" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -2328,13 +2325,13 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2345,16 +2342,19 @@
         <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,11 +2367,20 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
-        <v>52</v>
-      </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -2382,19 +2391,13 @@
         <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s">
-        <v>147</v>
-      </c>
-      <c r="J75" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,16 +2411,10 @@
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
         <v>50</v>
-      </c>
-      <c r="G76" t="s">
-        <v>147</v>
-      </c>
-      <c r="K76" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -2431,19 +2428,16 @@
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
-      </c>
-      <c r="H77" t="s">
-        <v>147</v>
-      </c>
-      <c r="K77" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="J77" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2457,22 +2451,10 @@
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
-      </c>
-      <c r="G78" t="s">
-        <v>147</v>
-      </c>
-      <c r="H78" t="s">
-        <v>147</v>
-      </c>
-      <c r="J78" t="s">
-        <v>147</v>
-      </c>
-      <c r="K78" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -2486,10 +2468,10 @@
         <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -2503,10 +2485,16 @@
         <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="G80" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -2517,10 +2505,19 @@
         <v>50</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>144</v>
+      </c>
+      <c r="K81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,13 +2525,25 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>140</v>
+        <v>83</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" t="s">
+        <v>144</v>
+      </c>
+      <c r="K82" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -2542,13 +2551,28 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>84</v>
+      </c>
+      <c r="F83" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" t="s">
+        <v>144</v>
+      </c>
+      <c r="K83" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,16 +2580,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -2573,16 +2597,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -2590,13 +2611,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -2604,16 +2628,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,16 +2645,13 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -2638,19 +2659,13 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -2658,13 +2673,16 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>35</v>
+      </c>
+      <c r="F90" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -2672,13 +2690,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,13 +2707,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -2700,13 +2721,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,16 +2738,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>154</v>
+        <v>91</v>
+      </c>
+      <c r="F94" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -2731,25 +2755,19 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
       <c r="E95" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s">
-        <v>147</v>
-      </c>
-      <c r="H95" t="s">
-        <v>147</v>
-      </c>
-      <c r="K95" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,676 +2775,775 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>152</v>
-      </c>
-      <c r="F96" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s">
-        <v>147</v>
-      </c>
-      <c r="H96" t="s">
-        <v>147</v>
-      </c>
-      <c r="K96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
-      </c>
-      <c r="F97" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s">
-        <v>147</v>
-      </c>
-      <c r="H97" t="s">
-        <v>147</v>
-      </c>
-      <c r="K97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
         <v>56</v>
       </c>
-      <c r="G98" t="s">
-        <v>147</v>
-      </c>
-      <c r="H98" t="s">
-        <v>147</v>
-      </c>
-      <c r="K98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H101" t="s">
+        <v>144</v>
+      </c>
+      <c r="K101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" t="s">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" t="s">
+        <v>144</v>
+      </c>
+      <c r="K102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" t="s">
+        <v>144</v>
+      </c>
+      <c r="K103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" t="s">
+        <v>144</v>
+      </c>
+      <c r="H104" t="s">
+        <v>144</v>
+      </c>
+      <c r="K104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>144</v>
+      </c>
+      <c r="H105" t="s">
+        <v>144</v>
+      </c>
+      <c r="K105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s">
+        <v>144</v>
+      </c>
+      <c r="H106" t="s">
+        <v>144</v>
+      </c>
+      <c r="K106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s">
+        <v>144</v>
+      </c>
+      <c r="H107" t="s">
+        <v>144</v>
+      </c>
+      <c r="K107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
         <v>100</v>
       </c>
-      <c r="F99" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99" t="s">
-        <v>147</v>
-      </c>
-      <c r="H99" t="s">
-        <v>147</v>
-      </c>
-      <c r="K99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
         <v>101</v>
       </c>
-      <c r="F100" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s">
-        <v>147</v>
-      </c>
-      <c r="H100" t="s">
-        <v>147</v>
-      </c>
-      <c r="K100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" t="s">
         <v>102</v>
       </c>
-      <c r="F101" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s">
-        <v>147</v>
-      </c>
-      <c r="H101" t="s">
-        <v>147</v>
-      </c>
-      <c r="K101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
         <v>103</v>
       </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>104</v>
       </c>
-      <c r="F102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="B111" t="s">
         <v>105</v>
       </c>
-      <c r="F103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
         <v>106</v>
       </c>
-      <c r="C104" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F111" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" t="s">
         <v>106</v>
       </c>
-      <c r="F104" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="E112" t="s">
         <v>108</v>
-      </c>
-      <c r="C105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" t="s">
-        <v>109</v>
-      </c>
-      <c r="F105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" t="s">
-        <v>57</v>
-      </c>
-      <c r="D106" t="s">
-        <v>109</v>
-      </c>
-      <c r="E106" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" t="s">
-        <v>108</v>
-      </c>
-      <c r="F108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" t="s">
-        <v>113</v>
-      </c>
-      <c r="F110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" t="s">
-        <v>116</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" t="s">
-        <v>116</v>
-      </c>
-      <c r="L112" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
-      <c r="D114" t="s">
-        <v>116</v>
-      </c>
       <c r="E114" t="s">
-        <v>118</v>
-      </c>
-      <c r="L114" t="s">
-        <v>54</v>
+        <v>105</v>
+      </c>
+      <c r="F114" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
+      <c r="D115" t="s">
+        <v>105</v>
+      </c>
       <c r="E115" t="s">
-        <v>119</v>
-      </c>
-      <c r="F115" t="s">
-        <v>52</v>
-      </c>
-      <c r="L115" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="F116" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
-      </c>
-      <c r="L117" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="E118" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="D119" t="s">
+        <v>113</v>
       </c>
       <c r="E119" t="s">
-        <v>125</v>
-      </c>
-      <c r="F119" t="s">
-        <v>52</v>
-      </c>
-      <c r="L119" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
+      <c r="D120" t="s">
+        <v>113</v>
+      </c>
       <c r="E120" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C121" t="s">
         <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="F121" t="s">
+        <v>51</v>
       </c>
       <c r="L121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E122" t="s">
-        <v>129</v>
-      </c>
-      <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="L122" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C123" t="s">
         <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>131</v>
-      </c>
-      <c r="F123" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="E124" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
       </c>
       <c r="E125" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F125" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="L125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B126" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C126" t="s">
         <v>18</v>
       </c>
       <c r="E126" t="s">
-        <v>134</v>
-      </c>
-      <c r="F126" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
       </c>
       <c r="E127" t="s">
-        <v>135</v>
-      </c>
-      <c r="F127" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>136</v>
-      </c>
-      <c r="C128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" t="s">
-        <v>136</v>
-      </c>
-      <c r="F128" t="s">
-        <v>130</v>
-      </c>
       <c r="L128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" t="s">
+        <v>128</v>
+      </c>
+      <c r="F129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>127</v>
-      </c>
-      <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>137</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
       <c r="L129" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" t="s">
+        <v>129</v>
+      </c>
+      <c r="L130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" t="s">
+        <v>130</v>
+      </c>
+      <c r="F131" t="s">
         <v>127</v>
       </c>
-      <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" t="s">
-        <v>130</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="L130" t="s">
-        <v>54</v>
+      <c r="L131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>131</v>
+      </c>
+      <c r="F132" t="s">
+        <v>127</v>
+      </c>
+      <c r="L132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" t="s">
+        <v>127</v>
+      </c>
+      <c r="L133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" t="s">
+        <v>127</v>
+      </c>
+      <c r="L134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="L135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="L136" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
